--- a/analysis/performance_SPIC.xlsx
+++ b/analysis/performance_SPIC.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480" activeTab="5"/>
+    <workbookView windowWidth="24750" windowHeight="10480" tabRatio="713" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="ori" sheetId="1" r:id="rId1"/>
+    <sheet name="BPG+SSM(FLIF)" sheetId="1" r:id="rId1"/>
     <sheet name="noCom+FLIF" sheetId="2" r:id="rId2"/>
     <sheet name="BPG+noSSM" sheetId="3" r:id="rId3"/>
-    <sheet name="BPG+Region" sheetId="5" r:id="rId4"/>
-    <sheet name="noCOM+Region" sheetId="6" r:id="rId5"/>
-    <sheet name="plot" sheetId="4" r:id="rId6"/>
+    <sheet name="BPG+SSM(Region)" sheetId="5" r:id="rId4"/>
+    <sheet name="noCOM+SSM(Region)" sheetId="6" r:id="rId5"/>
+    <sheet name="BPG+layout" sheetId="7" r:id="rId6"/>
+    <sheet name="BPG+Sketch" sheetId="8" r:id="rId7"/>
+    <sheet name="plot" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
   <si>
     <t>QP_Com</t>
   </si>
@@ -56,6 +58,12 @@
   </si>
   <si>
     <t>threshold</t>
+  </si>
+  <si>
+    <t>bpp_layout</t>
+  </si>
+  <si>
+    <t>bpp_Sketch</t>
   </si>
 </sst>
 </file>
@@ -677,22 +685,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -816,11 +823,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ori"</c:f>
+              <c:f>"BPG+SSM(FLIF)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ori</c:v>
+                  <c:v>BPG+SSM(FLIF)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -854,7 +861,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>ori!$D$2:$D$7</c:f>
+              <c:f>'BPG+SSM(FLIF)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -881,7 +888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ori!$F$2:$F$7</c:f>
+              <c:f>'BPG+SSM(FLIF)'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1077,11 +1084,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>"BPG+Region"</c:f>
+              <c:f>"BPG+SSM(Region)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BPG+Region</c:v>
+                  <c:v>BPG+SSM(Region)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1115,7 +1122,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'BPG+Region'!$D$2:$D$7</c:f>
+              <c:f>'BPG+SSM(Region)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1142,7 +1149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BPG+Region'!$F$2:$F$7</c:f>
+              <c:f>'BPG+SSM(Region)'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1174,11 +1181,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>"noCom+Region"</c:f>
+              <c:f>"noCOM+SSM(Region)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>noCom+Region</c:v>
+                  <c:v>noCOM+SSM(Region)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1212,7 +1219,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'noCOM+Region'!$D$2:$D$7</c:f>
+              <c:f>'noCOM+SSM(Region)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1239,7 +1246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'noCOM+Region'!$F$2:$F$7</c:f>
+              <c:f>'noCOM+SSM(Region)'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1260,6 +1267,170 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50.0983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+layout"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+layout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+layout'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+layout'!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54.6354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Sketch"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Sketch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>89.8571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.9078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.3949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.2484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.2674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,11 +1751,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ori"</c:f>
+              <c:f>"BPG+SSM(FLIF)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ori</c:v>
+                  <c:v>BPG+SSM(FLIF)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1618,7 +1789,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>ori!$D$2:$D$7</c:f>
+              <c:f>'BPG+SSM(FLIF)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1645,7 +1816,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ori!$E$2:$E$7</c:f>
+              <c:f>'BPG+SSM(FLIF)'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1841,11 +2012,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>"BPG+Region"</c:f>
+              <c:f>"BPG+SSM(Region)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BPG+Region</c:v>
+                  <c:v>BPG+SSM(Region)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1879,7 +2050,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'BPG+Region'!$D$2:$D$7</c:f>
+              <c:f>'BPG+SSM(Region)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1906,7 +2077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BPG+Region'!$E$2:$E$7</c:f>
+              <c:f>'BPG+SSM(Region)'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1938,11 +2109,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>"noCOM+Region"</c:f>
+              <c:f>"noCOM+SSM(Region)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>noCOM+Region</c:v>
+                  <c:v>noCOM+SSM(Region)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1976,7 +2147,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'noCOM+Region'!$D$2:$D$7</c:f>
+              <c:f>'noCOM+SSM(Region)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2003,7 +2174,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'noCOM+Region'!$E$2:$E$7</c:f>
+              <c:f>'noCOM+SSM(Region)'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2024,6 +2195,170 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.8177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+layout"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+layout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+layout'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+layout'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.6147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Sketch"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Sketch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,11 +2679,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ori"</c:f>
+              <c:f>"BPG+SSM(FLIF)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ori</c:v>
+                  <c:v>BPG+SSM(FLIF)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2382,7 +2717,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>ori!$D$2:$D$7</c:f>
+              <c:f>'BPG+SSM(FLIF)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2409,7 +2744,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ori!$G$2:$G$7</c:f>
+              <c:f>'BPG+SSM(FLIF)'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2605,11 +2940,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>"BPG+Region"</c:f>
+              <c:f>"BPG+SSM(Region)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BPG+Region</c:v>
+                  <c:v>BPG+SSM(Region)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2643,7 +2978,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'BPG+Region'!$D$2:$D$7</c:f>
+              <c:f>'BPG+SSM(Region)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2670,7 +3005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BPG+Region'!$G$2:$G$7</c:f>
+              <c:f>'BPG+SSM(Region)'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2702,11 +3037,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>"noCom+Region"</c:f>
+              <c:f>"noCOM+SSM(Region)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>noCom+Region</c:v>
+                  <c:v>noCOM+SSM(Region)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2740,7 +3075,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'noCOM+Region'!$D$2:$D$7</c:f>
+              <c:f>'noCOM+SSM(Region)'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2767,7 +3102,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'noCOM+Region'!$G$2:$G$7</c:f>
+              <c:f>'noCOM+SSM(Region)'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2788,6 +3123,170 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.4959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+layout"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+layout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+layout'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+layout'!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Sketch"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Sketch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5136,31 +5635,31 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A1" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5168,23 +5667,23 @@
       <c r="A2">
         <v>35</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0.0536</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>0.1114</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D7" si="0">B2+C2</f>
         <v>0.165</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>0.8059</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>56.9184</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>0.3639</v>
       </c>
     </row>
@@ -5192,23 +5691,23 @@
       <c r="A3">
         <v>38</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>0.0376</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>0.1114</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
         <v>0.149</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0.7958</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>60.8214</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>0.3848</v>
       </c>
     </row>
@@ -5216,23 +5715,23 @@
       <c r="A4">
         <v>41</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.0251</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>0.1114</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>0.1365</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0.7936</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>67.9488</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>0.4094</v>
       </c>
     </row>
@@ -5240,23 +5739,23 @@
       <c r="A5">
         <v>44</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.0161</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.1114</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>0.1275</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0.7868</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>77.0462</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>0.4346</v>
       </c>
     </row>
@@ -5264,23 +5763,23 @@
       <c r="A6">
         <v>47</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>0.0102</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0.1114</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>0.1216</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>0.7652</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>91.0095</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>0.4581</v>
       </c>
     </row>
@@ -5288,23 +5787,23 @@
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>0.0066</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>0.1114</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>0.118</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>0.764</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>110.7102</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>0.4789</v>
       </c>
     </row>
@@ -5321,50 +5820,50 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A1" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0.1114</v>
       </c>
       <c r="C2">
         <f>A2+B2</f>
         <v>0.1114</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>0.8231</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>60.7691</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>0.5055</v>
       </c>
     </row>
@@ -5386,25 +5885,25 @@
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5412,7 +5911,7 @@
       <c r="A2">
         <v>35</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0.0536</v>
       </c>
       <c r="C2" s="5">
@@ -5422,13 +5921,13 @@
         <f t="shared" ref="D2:D7" si="0">B2+C2</f>
         <v>0.0536</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>0.3154</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>76.1714</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>0.4262</v>
       </c>
     </row>
@@ -5436,7 +5935,7 @@
       <c r="A3">
         <v>38</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>0.0376</v>
       </c>
       <c r="C3" s="5">
@@ -5446,13 +5945,13 @@
         <f t="shared" si="0"/>
         <v>0.0376</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0.2733</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>84.8182</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>0.4587</v>
       </c>
     </row>
@@ -5460,7 +5959,7 @@
       <c r="A4">
         <v>41</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.0251</v>
       </c>
       <c r="C4" s="5">
@@ -5470,13 +5969,13 @@
         <f t="shared" si="0"/>
         <v>0.0251</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0.2253</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>99.1557</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>0.496</v>
       </c>
     </row>
@@ -5484,7 +5983,7 @@
       <c r="A5">
         <v>44</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.0161</v>
       </c>
       <c r="C5" s="5">
@@ -5494,13 +5993,13 @@
         <f t="shared" si="0"/>
         <v>0.0161</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0.1956</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>119.6462</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>0.5346</v>
       </c>
     </row>
@@ -5508,7 +6007,7 @@
       <c r="A6">
         <v>47</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>0.0102</v>
       </c>
       <c r="C6" s="5">
@@ -5518,13 +6017,13 @@
         <f t="shared" si="0"/>
         <v>0.0102</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>0.1608</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>149.2132</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>0.5669</v>
       </c>
     </row>
@@ -5532,7 +6031,7 @@
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>0.0066</v>
       </c>
       <c r="C7" s="5">
@@ -5542,13 +6041,13 @@
         <f t="shared" si="0"/>
         <v>0.0066</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>0.1293</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>184.3873</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>0.5924</v>
       </c>
     </row>
@@ -5564,31 +6063,31 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5742,31 +6241,31 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5917,10 +6416,236 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0111</v>
+      </c>
+      <c r="C2">
+        <f>A2+B2</f>
+        <v>0.0647</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.6147</v>
+      </c>
+      <c r="E2" s="3">
+        <v>54.6354</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.3907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1764</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>0.23</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.3058</v>
+      </c>
+      <c r="F2" s="3">
+        <v>89.8571</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.4093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1476</v>
+      </c>
+      <c r="D3">
+        <f>B3+C3</f>
+        <v>0.2012</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.3039</v>
+      </c>
+      <c r="F3" s="3">
+        <v>92.9078</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.4101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1257</v>
+      </c>
+      <c r="D4">
+        <f>B4+C4</f>
+        <v>0.1793</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3061</v>
+      </c>
+      <c r="F4" s="3">
+        <v>94.3949</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.4126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1181</v>
+      </c>
+      <c r="D5">
+        <f>B5+C5</f>
+        <v>0.1717</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.3009</v>
+      </c>
+      <c r="F5" s="3">
+        <v>96.2484</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.4146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1109</v>
+      </c>
+      <c r="D6">
+        <f>B6+C6</f>
+        <v>0.1645</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.2978</v>
+      </c>
+      <c r="F6" s="3">
+        <v>97.2674</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>

--- a/analysis/performance_SPIC.xlsx
+++ b/analysis/performance_SPIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480" tabRatio="713" activeTab="7"/>
+    <workbookView windowWidth="24750" windowHeight="10480" tabRatio="940" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="BPG+SSM(FLIF)" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,11 @@
     <sheet name="BPG+SSM(Region)" sheetId="5" r:id="rId4"/>
     <sheet name="noCOM+SSM(Region)" sheetId="6" r:id="rId5"/>
     <sheet name="BPG+layout" sheetId="7" r:id="rId6"/>
-    <sheet name="BPG+Sketch" sheetId="8" r:id="rId7"/>
-    <sheet name="plot" sheetId="4" r:id="rId8"/>
+    <sheet name="BPG+Boundary (trand)" sheetId="12" r:id="rId7"/>
+    <sheet name="BPG+Boundary (learned)" sheetId="9" r:id="rId8"/>
+    <sheet name="BPG+Sketch (trand)" sheetId="10" r:id="rId9"/>
+    <sheet name="BPG+Sketch (learned)" sheetId="8" r:id="rId10"/>
+    <sheet name="plot" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
   <si>
     <t>QP_Com</t>
   </si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>bpp_layout</t>
+  </si>
+  <si>
+    <t>bpp_Boundary</t>
   </si>
   <si>
     <t>bpp_Sketch</t>
@@ -685,13 +691,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1127,22 +1139,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4238</c:v>
+                  <c:v>0.2664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2426</c:v>
+                  <c:v>0.1817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2175</c:v>
+                  <c:v>0.1683</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1973</c:v>
+                  <c:v>0.1535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1897</c:v>
+                  <c:v>0.1491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1823</c:v>
+                  <c:v>0.1431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,22 +1236,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3702</c:v>
+                  <c:v>0.2128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.189</c:v>
+                  <c:v>0.1281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1639</c:v>
+                  <c:v>0.1147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1437</c:v>
+                  <c:v>0.0999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1361</c:v>
+                  <c:v>0.0955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1287</c:v>
+                  <c:v>0.0895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,11 +1357,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>"BPG+Sketch"</c:f>
+              <c:f>"BPG+Sketch (learned)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BPG+Sketch</c:v>
+                  <c:v>BPG+Sketch (learned)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1389,35 +1401,229 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'BPG+Sketch'!$D$2:$D$6</c:f>
+              <c:f>'BPG+Sketch (learned)'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23</c:v>
+                  <c:v>0.1412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2012</c:v>
+                  <c:v>0.1364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1793</c:v>
+                  <c:v>0.132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1717</c:v>
+                  <c:v>0.1295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1645</c:v>
+                  <c:v>0.1269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BPG+Sketch'!$F$2:$F$6</c:f>
+              <c:f>'BPG+Sketch (learned)'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>97.8765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.8252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.8114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.8114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.5369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Boundary (learned)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Boundary (learned)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (learned)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (learned)'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>81.302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.7274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.9305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.9305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.8819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Sketch (trand)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Sketch (trand)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch (trand)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch (trand)'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>89.8571</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1431,6 +1637,103 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>97.2674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Boundary (trand)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Boundary (trand)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (trand)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (trand)'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.9783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.6728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.9078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.4326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.9366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,6 +1755,7 @@
         <c:axId val="406549726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2055,22 +2359,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4238</c:v>
+                  <c:v>0.2664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2426</c:v>
+                  <c:v>0.1817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2175</c:v>
+                  <c:v>0.1683</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1973</c:v>
+                  <c:v>0.1535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1897</c:v>
+                  <c:v>0.1491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1823</c:v>
+                  <c:v>0.1431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,22 +2456,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3702</c:v>
+                  <c:v>0.2128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.189</c:v>
+                  <c:v>0.1281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1639</c:v>
+                  <c:v>0.1147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1437</c:v>
+                  <c:v>0.0999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1361</c:v>
+                  <c:v>0.0955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1287</c:v>
+                  <c:v>0.0895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,11 +2577,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>"BPG+Sketch"</c:f>
+              <c:f>"BPG+Sketch (learned)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BPG+Sketch</c:v>
+                  <c:v>BPG+Sketch (learned)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2317,35 +2621,229 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'BPG+Sketch'!$D$2:$D$6</c:f>
+              <c:f>'BPG+Sketch (learned)'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23</c:v>
+                  <c:v>0.1412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2012</c:v>
+                  <c:v>0.1364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1793</c:v>
+                  <c:v>0.132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1717</c:v>
+                  <c:v>0.1295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1645</c:v>
+                  <c:v>0.1269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BPG+Sketch'!$E$2:$E$6</c:f>
+              <c:f>'BPG+Sketch (learned)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.2968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Boundary (learned)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Boundary (learned)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (learned)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (learned)'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Sketch (trand)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Sketch (trand)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch (trand)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch (trand)'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0.3058</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2359,6 +2857,103 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Boundary (trand)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Boundary (trand)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (trand)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (trand)'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,6 +2975,8 @@
         <c:axId val="406549726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2983,22 +3580,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4238</c:v>
+                  <c:v>0.2664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2426</c:v>
+                  <c:v>0.1817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2175</c:v>
+                  <c:v>0.1683</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1973</c:v>
+                  <c:v>0.1535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1897</c:v>
+                  <c:v>0.1491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1823</c:v>
+                  <c:v>0.1431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,22 +3677,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3702</c:v>
+                  <c:v>0.2128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.189</c:v>
+                  <c:v>0.1281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1639</c:v>
+                  <c:v>0.1147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1437</c:v>
+                  <c:v>0.0999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1361</c:v>
+                  <c:v>0.0955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1287</c:v>
+                  <c:v>0.0895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3201,11 +3798,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>"BPG+Sketch"</c:f>
+              <c:f>"BPG+Sketch (learned)"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BPG+Sketch</c:v>
+                  <c:v>BPG+Sketch (learned)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3245,35 +3842,229 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'BPG+Sketch'!$D$2:$D$6</c:f>
+              <c:f>'BPG+Sketch (learned)'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23</c:v>
+                  <c:v>0.1412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2012</c:v>
+                  <c:v>0.1364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1793</c:v>
+                  <c:v>0.132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1717</c:v>
+                  <c:v>0.1295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1645</c:v>
+                  <c:v>0.1269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BPG+Sketch'!$G$2:$G$6</c:f>
+              <c:f>'BPG+Sketch (learned)'!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.4189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Boundary (learned)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Boundary (learned)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (learned)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (learned)'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Sketch (trand)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Sketch (trand)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch (trand)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Sketch (trand)'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0.4093</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3287,6 +4078,103 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"BPG+Boundary (trand)"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPG+Boundary (trand)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (trand)'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BPG+Boundary (trand)'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,6 +4196,7 @@
         <c:axId val="406549726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5286,13 +6175,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5300,8 +6189,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5283200" y="0"/>
-        <a:ext cx="4826000" cy="3815715"/>
+        <a:off x="5283200" y="6350"/>
+        <a:ext cx="4826000" cy="5149215"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5314,15 +6203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5330,8 +6219,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="4826000" cy="3815715"/>
+        <a:off x="6350" y="6350"/>
+        <a:ext cx="4622800" cy="5142865"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5346,13 +6235,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5360,8 +6249,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10566400" y="0"/>
-        <a:ext cx="4826000" cy="3815715"/>
+        <a:off x="10566400" y="6350"/>
+        <a:ext cx="4826000" cy="5154930"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5814,6 +6703,191 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0876</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>0.1412</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.2968</v>
+      </c>
+      <c r="F2" s="2">
+        <v>97.8765</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.4189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0828</v>
+      </c>
+      <c r="D3">
+        <f>B3+C3</f>
+        <v>0.1364</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.2932</v>
+      </c>
+      <c r="F3" s="2">
+        <v>98.8252</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.4197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.0784</v>
+      </c>
+      <c r="D4">
+        <f>B4+C4</f>
+        <v>0.132</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.2926</v>
+      </c>
+      <c r="F4" s="2">
+        <v>99.8114</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.4212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0759</v>
+      </c>
+      <c r="D5">
+        <f>B5+C5</f>
+        <v>0.1295</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2908</v>
+      </c>
+      <c r="F5" s="2">
+        <v>99.8114</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.4226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.0733</v>
+      </c>
+      <c r="D6">
+        <f>B6+C6</f>
+        <v>0.1269</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2873</v>
+      </c>
+      <c r="F6" s="2">
+        <v>101.5369</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.4242</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -5914,7 +6988,7 @@
       <c r="B2" s="2">
         <v>0.0536</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
       <c r="D2">
@@ -5938,7 +7012,7 @@
       <c r="B3" s="2">
         <v>0.0376</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3">
@@ -5962,7 +7036,7 @@
       <c r="B4" s="2">
         <v>0.0251</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>0</v>
       </c>
       <c r="D4">
@@ -5986,7 +7060,7 @@
       <c r="B5" s="2">
         <v>0.0161</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5">
@@ -6010,7 +7084,7 @@
       <c r="B6" s="2">
         <v>0.0102</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6">
@@ -6034,7 +7108,7 @@
       <c r="B7" s="2">
         <v>0.0066</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7">
@@ -6063,31 +7137,31 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6095,14 +7169,15 @@
       <c r="A2" s="2">
         <v>0.5</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.3702</v>
+      <c r="B2" s="4">
+        <v>0.2128</v>
       </c>
       <c r="C2" s="2">
         <v>0.0536</v>
       </c>
       <c r="D2" s="2">
-        <v>0.4238</v>
+        <f t="shared" ref="D2:D7" si="0">B2+C2</f>
+        <v>0.2664</v>
       </c>
       <c r="E2" s="2">
         <v>0.8091</v>
@@ -6118,14 +7193,15 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.189</v>
+      <c r="B3" s="4">
+        <v>0.1281</v>
       </c>
       <c r="C3" s="2">
         <v>0.0536</v>
       </c>
       <c r="D3" s="2">
-        <v>0.2426</v>
+        <f t="shared" si="0"/>
+        <v>0.1817</v>
       </c>
       <c r="E3" s="2">
         <v>0.8097</v>
@@ -6141,14 +7217,15 @@
       <c r="A4" s="2">
         <v>1.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.1639</v>
+      <c r="B4" s="4">
+        <v>0.1147</v>
       </c>
       <c r="C4" s="2">
         <v>0.0536</v>
       </c>
       <c r="D4" s="2">
-        <v>0.2175</v>
+        <f t="shared" si="0"/>
+        <v>0.1683</v>
       </c>
       <c r="E4" s="2">
         <v>0.8095</v>
@@ -6164,14 +7241,15 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.1437</v>
+      <c r="B5" s="4">
+        <v>0.0999</v>
       </c>
       <c r="C5" s="2">
         <v>0.0536</v>
       </c>
       <c r="D5" s="2">
-        <v>0.1973</v>
+        <f t="shared" si="0"/>
+        <v>0.1535</v>
       </c>
       <c r="E5" s="2">
         <v>0.8099</v>
@@ -6187,14 +7265,15 @@
       <c r="A6" s="2">
         <v>2.5</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.1361</v>
+      <c r="B6" s="4">
+        <v>0.0955</v>
       </c>
       <c r="C6" s="2">
         <v>0.0536</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1897</v>
+        <f t="shared" si="0"/>
+        <v>0.1491</v>
       </c>
       <c r="E6" s="2">
         <v>0.8104</v>
@@ -6210,14 +7289,15 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.1287</v>
+      <c r="B7" s="4">
+        <v>0.0895</v>
       </c>
       <c r="C7" s="2">
         <v>0.0536</v>
       </c>
       <c r="D7" s="2">
-        <v>0.1823</v>
+        <f t="shared" si="0"/>
+        <v>0.1431</v>
       </c>
       <c r="E7" s="2">
         <v>0.8106</v>
@@ -6241,31 +7321,31 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6273,14 +7353,15 @@
       <c r="A2" s="2">
         <v>0.5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
+        <v>0.2128</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.3702</v>
-      </c>
       <c r="D2" s="2">
-        <v>0.3702</v>
+        <f t="shared" ref="D2:D7" si="0">B2+C2</f>
+        <v>0.2128</v>
       </c>
       <c r="E2" s="2">
         <v>0.818</v>
@@ -6296,14 +7377,15 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
+        <v>0.1281</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.189</v>
-      </c>
       <c r="D3" s="2">
-        <v>0.189</v>
+        <f t="shared" si="0"/>
+        <v>0.1281</v>
       </c>
       <c r="E3" s="2">
         <v>0.8199</v>
@@ -6319,14 +7401,15 @@
       <c r="A4" s="2">
         <v>1.5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
+        <v>0.1147</v>
+      </c>
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.1639</v>
-      </c>
       <c r="D4" s="2">
-        <v>0.1639</v>
+        <f t="shared" si="0"/>
+        <v>0.1147</v>
       </c>
       <c r="E4" s="2">
         <v>0.8212</v>
@@ -6342,14 +7425,15 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
+        <v>0.0999</v>
+      </c>
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.1437</v>
-      </c>
       <c r="D5" s="2">
-        <v>0.1437</v>
+        <f t="shared" si="0"/>
+        <v>0.0999</v>
       </c>
       <c r="E5" s="2">
         <v>0.8261</v>
@@ -6365,14 +7449,15 @@
       <c r="A6" s="2">
         <v>2.5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
+        <v>0.0955</v>
+      </c>
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.1361</v>
-      </c>
       <c r="D6" s="2">
-        <v>0.1361</v>
+        <f t="shared" si="0"/>
+        <v>0.0955</v>
       </c>
       <c r="E6" s="2">
         <v>0.8193</v>
@@ -6388,14 +7473,15 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
+        <v>0.0895</v>
+      </c>
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.1287</v>
-      </c>
       <c r="D7" s="2">
-        <v>0.1287</v>
+        <f t="shared" si="0"/>
+        <v>0.0895</v>
       </c>
       <c r="E7" s="2">
         <v>0.8177</v>
@@ -6419,7 +7505,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -6455,13 +7541,13 @@
         <f>A2+B2</f>
         <v>0.0647</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.6147</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>54.6354</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.3907</v>
       </c>
     </row>
@@ -6474,13 +7560,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G6"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -6513,20 +7599,20 @@
         <v>0.0536</v>
       </c>
       <c r="C2" s="3">
-        <v>0.1764</v>
+        <v>0.1137</v>
       </c>
       <c r="D2">
-        <f>B2+C2</f>
-        <v>0.23</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.3058</v>
-      </c>
-      <c r="F2" s="3">
-        <v>89.8571</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.4093</v>
+        <f t="shared" ref="D2:D6" si="0">B2+C2</f>
+        <v>0.1673</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.4163</v>
+      </c>
+      <c r="F2" s="4">
+        <v>78.9783</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.4183</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6537,20 +7623,20 @@
         <v>0.0536</v>
       </c>
       <c r="C3" s="3">
-        <v>0.1476</v>
+        <v>0.0967</v>
       </c>
       <c r="D3">
-        <f>B3+C3</f>
-        <v>0.2012</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.3039</v>
-      </c>
-      <c r="F3" s="3">
-        <v>92.9078</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.4101</v>
+        <f t="shared" si="0"/>
+        <v>0.1503</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.4155</v>
+      </c>
+      <c r="F3" s="4">
+        <v>79.6728</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.4169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6561,20 +7647,20 @@
         <v>0.0536</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1257</v>
+        <v>0.0786</v>
       </c>
       <c r="D4">
-        <f>B4+C4</f>
-        <v>0.1793</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.3061</v>
-      </c>
-      <c r="F4" s="3">
-        <v>94.3949</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.4126</v>
+        <f t="shared" si="0"/>
+        <v>0.1322</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.408</v>
+      </c>
+      <c r="F4" s="4">
+        <v>82.9078</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.4218</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6585,20 +7671,20 @@
         <v>0.0536</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1181</v>
+        <v>0.0737</v>
       </c>
       <c r="D5">
-        <f>B5+C5</f>
-        <v>0.1717</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.3009</v>
-      </c>
-      <c r="F5" s="3">
-        <v>96.2484</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.4146</v>
+        <f t="shared" si="0"/>
+        <v>0.1273</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.4047</v>
+      </c>
+      <c r="F5" s="4">
+        <v>82.4326</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.4238</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6609,29 +7695,28 @@
         <v>0.0536</v>
       </c>
       <c r="C6" s="3">
-        <v>0.1109</v>
+        <v>0.0678</v>
       </c>
       <c r="D6">
-        <f>B6+C6</f>
-        <v>0.1645</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.2978</v>
-      </c>
-      <c r="F6" s="3">
-        <v>97.2674</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.4167</v>
+        <f t="shared" si="0"/>
+        <v>0.1214</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.4015</v>
+      </c>
+      <c r="F6" s="4">
+        <v>82.9366</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.4253</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="8" spans="13:17">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6642,16 +7727,319 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.0901</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D6" si="0">B2+C2</f>
+        <v>0.1437</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.3852</v>
+      </c>
+      <c r="F2" s="2">
+        <v>81.302</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.4281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.0855</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.1391</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.3843</v>
+      </c>
+      <c r="F3" s="2">
+        <v>81.7274</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.4292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.0801</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.1337</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.3818</v>
+      </c>
+      <c r="F4" s="2">
+        <v>81.9305</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.4303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.0771</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.1307</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.3782</v>
+      </c>
+      <c r="F5" s="2">
+        <v>81.9305</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.4308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.074</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.1276</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.3734</v>
+      </c>
+      <c r="F6" s="2">
+        <v>82.8819</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.4317</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0945</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D6" si="0">B2+C2</f>
+        <v>0.1481</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.3058</v>
+      </c>
+      <c r="F2" s="4">
+        <v>89.8571</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.4093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0815</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.1351</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.3039</v>
+      </c>
+      <c r="F3" s="4">
+        <v>92.9078</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.4101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0728</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.1264</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.3061</v>
+      </c>
+      <c r="F4" s="4">
+        <v>94.3949</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.4126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.0693</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.1229</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.3009</v>
+      </c>
+      <c r="F5" s="4">
+        <v>96.2484</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.4146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0536</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.0664</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2978</v>
+      </c>
+      <c r="F6" s="4">
+        <v>97.2674</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.4167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>